--- a/МультикиТаблица.xlsx
+++ b/МультикиТаблица.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robot\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5268AE0B-6ED0-4354-AD9B-323408EA609E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{44E08DE6-B20C-46BE-88A3-B71D5880BBFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25515" windowHeight="10950"/>
   </bookViews>
@@ -1063,7 +1063,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G5"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
